--- a/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.57527393186639</v>
+        <v>93.64656269756638</v>
       </c>
       <c r="D2" t="n">
-        <v>18.02293764305218</v>
+        <v>15.18645107773687</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.71995427411892</v>
+        <v>94.02794490576994</v>
       </c>
       <c r="D3" t="n">
-        <v>17.890526682223</v>
+        <v>17.71043138005133</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.22924696485578</v>
+        <v>88.60269573024823</v>
       </c>
       <c r="D4" t="n">
-        <v>17.02816850382147</v>
+        <v>14.90751809646923</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.22128933485419</v>
+        <v>87.10088466286408</v>
       </c>
       <c r="D5" t="n">
-        <v>17.57705686131698</v>
+        <v>15.61199935837703</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.05573481600108</v>
+        <v>88.28334146339751</v>
       </c>
       <c r="D6" t="n">
-        <v>16.94440258040581</v>
+        <v>16.70933712012349</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.07971023978307</v>
+        <v>88.77159925561335</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7232625512198</v>
+        <v>17.03635793426428</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.09777720650695</v>
+        <v>84.21719230371451</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83110512484081</v>
+        <v>15.20808845675262</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.43371371356905</v>
+        <v>84.80780620116079</v>
       </c>
       <c r="D9" t="n">
-        <v>14.90690748810848</v>
+        <v>14.91615407493213</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.73535082250447</v>
+        <v>85.60243786436929</v>
       </c>
       <c r="D10" t="n">
-        <v>16.27384159035894</v>
+        <v>15.31665724859187</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.43611823063252</v>
+        <v>81.86308422965669</v>
       </c>
       <c r="D11" t="n">
-        <v>18.72405799551774</v>
+        <v>16.85308740258344</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.30009199147088</v>
+        <v>82.38907929447824</v>
       </c>
       <c r="D12" t="n">
-        <v>17.66023111092951</v>
+        <v>17.18391046083489</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.53591249718649</v>
+        <v>81.05062181993667</v>
       </c>
       <c r="D13" t="n">
-        <v>15.77428108648187</v>
+        <v>14.87642745486803</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.68999052466579</v>
+        <v>79.80359246077613</v>
       </c>
       <c r="D14" t="n">
-        <v>18.73968344858199</v>
+        <v>14.77234968037896</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.54595029622398</v>
+        <v>80.60784757222102</v>
       </c>
       <c r="D15" t="n">
-        <v>17.06163766306114</v>
+        <v>13.74628124904487</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.44664489339333</v>
+        <v>76.52715171900378</v>
       </c>
       <c r="D16" t="n">
-        <v>17.1002441518604</v>
+        <v>15.14073535547197</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.53582041790092</v>
+        <v>78.12952805511452</v>
       </c>
       <c r="D17" t="n">
-        <v>17.03011245453213</v>
+        <v>15.83323559519973</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.81107770898876</v>
+        <v>75.54517781596935</v>
       </c>
       <c r="D18" t="n">
-        <v>16.93723394595231</v>
+        <v>16.02955220635871</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.44262949492344</v>
+        <v>75.35730599641975</v>
       </c>
       <c r="D19" t="n">
-        <v>17.19316593454019</v>
+        <v>15.67388667712292</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.26424679947395</v>
+        <v>73.05045782460984</v>
       </c>
       <c r="D20" t="n">
-        <v>14.35129209610502</v>
+        <v>14.82410257008531</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.487925615545</v>
+        <v>72.50369826265967</v>
       </c>
       <c r="D21" t="n">
-        <v>17.18609877143588</v>
+        <v>13.50659564509085</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>73.15862464851561</v>
+        <v>72.23938555063489</v>
       </c>
       <c r="D22" t="n">
-        <v>16.10677282381446</v>
+        <v>14.72760170739978</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.88990720805583</v>
+        <v>71.6405240664613</v>
       </c>
       <c r="D23" t="n">
-        <v>15.43644508584772</v>
+        <v>14.55778635595533</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.50960648877108</v>
+        <v>71.68710905666855</v>
       </c>
       <c r="D24" t="n">
-        <v>18.66167731625664</v>
+        <v>15.83520984307138</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.0404322592771</v>
+        <v>68.02970456854794</v>
       </c>
       <c r="D25" t="n">
-        <v>18.61594727869321</v>
+        <v>17.61244456045307</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.87121984225696</v>
+        <v>68.96722378963244</v>
       </c>
       <c r="D26" t="n">
-        <v>16.07042115393914</v>
+        <v>17.28412392845414</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>68.03292248263836</v>
+        <v>65.58869125091437</v>
       </c>
       <c r="D27" t="n">
-        <v>17.98872224753833</v>
+        <v>13.73915232481348</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>61.70847396322196</v>
+        <v>65.74167565550664</v>
       </c>
       <c r="D28" t="n">
-        <v>17.12623736543046</v>
+        <v>14.76881877483811</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.79453646838927</v>
+        <v>63.82653519292839</v>
       </c>
       <c r="D29" t="n">
-        <v>16.61484621364079</v>
+        <v>15.96672839702724</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.94822802890617</v>
+        <v>61.6892660258649</v>
       </c>
       <c r="D30" t="n">
-        <v>15.85433910827157</v>
+        <v>16.66501002750044</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.23999956413168</v>
+        <v>63.35323305852226</v>
       </c>
       <c r="D31" t="n">
-        <v>13.30084758961763</v>
+        <v>14.82981986398621</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.56596657171543</v>
+        <v>61.02644392099679</v>
       </c>
       <c r="D32" t="n">
-        <v>14.83301879944647</v>
+        <v>15.97490717321648</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.29401466920655</v>
+        <v>60.14008373833801</v>
       </c>
       <c r="D33" t="n">
-        <v>16.48895157737108</v>
+        <v>16.16223265621505</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.15233416782507</v>
+        <v>56.52662511056315</v>
       </c>
       <c r="D34" t="n">
-        <v>14.21652543274623</v>
+        <v>15.39375642938283</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.5921255769825</v>
+        <v>57.66285396071849</v>
       </c>
       <c r="D35" t="n">
-        <v>17.15469190837288</v>
+        <v>16.43277344990928</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.05414198459733</v>
+        <v>54.39340156544447</v>
       </c>
       <c r="D36" t="n">
-        <v>17.2022332639572</v>
+        <v>15.66423816607415</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.79668517049949</v>
+        <v>54.00904577768312</v>
       </c>
       <c r="D37" t="n">
-        <v>17.37594734197286</v>
+        <v>17.18106575136272</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.18562567871457</v>
+        <v>55.94969418768599</v>
       </c>
       <c r="D38" t="n">
-        <v>15.14341460862212</v>
+        <v>15.40282799589099</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.68385129286939</v>
+        <v>54.91800599595827</v>
       </c>
       <c r="D39" t="n">
-        <v>15.50125477297325</v>
+        <v>15.07802070935943</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.75889084829065</v>
+        <v>52.99928202255039</v>
       </c>
       <c r="D40" t="n">
-        <v>16.14045164194417</v>
+        <v>16.04263973244168</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.27459431785606</v>
+        <v>51.06798223174129</v>
       </c>
       <c r="D41" t="n">
-        <v>14.67731816530331</v>
+        <v>15.93440015548783</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.01356778628698</v>
+        <v>49.31340265437294</v>
       </c>
       <c r="D42" t="n">
-        <v>14.41145142308222</v>
+        <v>16.21925998606059</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.11503037340225</v>
+        <v>47.15812582223702</v>
       </c>
       <c r="D43" t="n">
-        <v>16.88455276258018</v>
+        <v>17.11181189795844</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.42901649684129</v>
+        <v>47.21322342082502</v>
       </c>
       <c r="D44" t="n">
-        <v>16.49612216218121</v>
+        <v>16.37328476521948</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.30735409038152</v>
+        <v>45.40061085658586</v>
       </c>
       <c r="D45" t="n">
-        <v>17.32201076434323</v>
+        <v>15.82682360994937</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.78255539751138</v>
+        <v>45.7624156067876</v>
       </c>
       <c r="D46" t="n">
-        <v>16.32727301881634</v>
+        <v>17.63539148275053</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.58654176865746</v>
+        <v>45.39015659751833</v>
       </c>
       <c r="D47" t="n">
-        <v>17.43759351905576</v>
+        <v>14.25089046845919</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.56434571007082</v>
+        <v>43.45958824283004</v>
       </c>
       <c r="D48" t="n">
-        <v>16.57593087139613</v>
+        <v>14.34412997433463</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.73698138055622</v>
+        <v>43.60802605355096</v>
       </c>
       <c r="D49" t="n">
-        <v>18.65171629751387</v>
+        <v>16.49205086258222</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.75026877351527</v>
+        <v>43.65445594501197</v>
       </c>
       <c r="D50" t="n">
-        <v>15.48213625909668</v>
+        <v>14.49682517456374</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.7652359879258</v>
+        <v>39.97691226859511</v>
       </c>
       <c r="D51" t="n">
-        <v>13.70972543413593</v>
+        <v>14.15533883313465</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.45280142349039</v>
+        <v>39.32002118400317</v>
       </c>
       <c r="D52" t="n">
-        <v>15.84233492561059</v>
+        <v>13.68338035479071</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.05641308534496</v>
+        <v>38.6928460689029</v>
       </c>
       <c r="D53" t="n">
-        <v>15.82068375489758</v>
+        <v>16.31767921731439</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.12315208550449</v>
+        <v>38.83266724740425</v>
       </c>
       <c r="D54" t="n">
-        <v>14.71363650895457</v>
+        <v>17.60742401651589</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.24078149530806</v>
+        <v>33.21892439776332</v>
       </c>
       <c r="D55" t="n">
-        <v>14.84444983903362</v>
+        <v>17.54176636030164</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>33.72097452913478</v>
+        <v>35.62605491050419</v>
       </c>
       <c r="D56" t="n">
-        <v>15.51862093185977</v>
+        <v>15.20895994834028</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.04667220788569</v>
+        <v>33.34174220969605</v>
       </c>
       <c r="D57" t="n">
-        <v>17.78957477909515</v>
+        <v>15.44577659257298</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.49200638679552</v>
+        <v>33.7158502686153</v>
       </c>
       <c r="D58" t="n">
-        <v>17.09344445770918</v>
+        <v>15.44604865668564</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.50018265406368</v>
+        <v>34.07408328920628</v>
       </c>
       <c r="D59" t="n">
-        <v>18.09475279675447</v>
+        <v>14.78808493794354</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.90197250611918</v>
+        <v>34.08226134867658</v>
       </c>
       <c r="D60" t="n">
-        <v>16.02281398856271</v>
+        <v>17.10359103294621</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.91459772933776</v>
+        <v>30.47776233616526</v>
       </c>
       <c r="D61" t="n">
-        <v>14.9987748501144</v>
+        <v>15.61151731776067</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.19107035078805</v>
+        <v>30.61150062521469</v>
       </c>
       <c r="D62" t="n">
-        <v>12.66051103184308</v>
+        <v>15.03048749611288</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.34374235998189</v>
+        <v>28.0509323056918</v>
       </c>
       <c r="D63" t="n">
-        <v>14.99027471121144</v>
+        <v>15.47807526754677</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.89645146985375</v>
+        <v>29.08428960115732</v>
       </c>
       <c r="D64" t="n">
-        <v>16.06753363571583</v>
+        <v>14.63424222836359</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.02090491627744</v>
+        <v>28.49021645617187</v>
       </c>
       <c r="D65" t="n">
-        <v>16.22319757377707</v>
+        <v>16.10790633896154</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.76311088284528</v>
+        <v>25.92007333912824</v>
       </c>
       <c r="D66" t="n">
-        <v>15.98670474984821</v>
+        <v>15.73306660683783</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.98754279263103</v>
+        <v>24.16283404675505</v>
       </c>
       <c r="D67" t="n">
-        <v>15.79341773372781</v>
+        <v>15.86842568241819</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.91123636400106</v>
+        <v>22.20361208620452</v>
       </c>
       <c r="D68" t="n">
-        <v>14.26927967090584</v>
+        <v>16.20654644439491</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.24381033179614</v>
+        <v>21.79072820727357</v>
       </c>
       <c r="D69" t="n">
-        <v>15.98683368578938</v>
+        <v>15.84671419899535</v>
       </c>
     </row>
   </sheetData>
